--- a/src/main/java/com/hrm/qa/testdata/test data.xlsx
+++ b/src/main/java/com/hrm/qa/testdata/test data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>userRole</t>
   </si>
@@ -40,19 +40,10 @@
     <t>Enabled</t>
   </si>
   <si>
-    <t>Mahesh</t>
+    <t>Mahesha</t>
   </si>
   <si>
     <t>Charger123!</t>
-  </si>
-  <si>
-    <t>ramesh</t>
-  </si>
-  <si>
-    <t>suresh</t>
-  </si>
-  <si>
-    <t>jnanesh</t>
   </si>
 </sst>
 </file>
@@ -352,66 +343,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
